--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value367.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value367.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.892044829268774</v>
+        <v>1.029136180877686</v>
       </c>
       <c r="B1">
-        <v>1.996331289032658</v>
+        <v>3.27988600730896</v>
       </c>
       <c r="C1">
-        <v>2.932650626950084</v>
+        <v>3.677816867828369</v>
       </c>
       <c r="D1">
-        <v>2.403219602088636</v>
+        <v>2.004348039627075</v>
       </c>
       <c r="E1">
-        <v>0.9532903483231234</v>
+        <v>1.175016760826111</v>
       </c>
     </row>
   </sheetData>
